--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" r:id="rId3" sheetId="1"/>
-    <sheet name="AdodtABlock_Automation" r:id="rId4" sheetId="2"/>
+    <sheet name="AdoptaBlock_Automation" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -42,19 +42,19 @@
     <t>Start Time</t>
   </si>
   <si>
-    <t>2017-06-08T10:46:24Z</t>
+    <t>2017-06-21T13:52:54Z</t>
   </si>
   <si>
     <t>End Time</t>
   </si>
   <si>
-    <t>2017-06-08T10:48:02Z</t>
+    <t>2017-06-21T13:53:33Z</t>
   </si>
   <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>97925 ms</t>
+    <t>39268 ms</t>
   </si>
   <si>
     <t>TestCase Name</t>
@@ -66,7 +66,7 @@
     <t>Exception</t>
   </si>
   <si>
-    <t>com.ab.testscripts.TestSuite.BlockRegistration</t>
+    <t>com.ab.testscripts.TestSuite.Login</t>
   </si>
   <si>
     <t>PASS</t>
@@ -75,13 +75,13 @@
     <t/>
   </si>
   <si>
-    <t>2017-06-08T16:16:49Z</t>
-  </si>
-  <si>
-    <t>2017-06-08T16:17:50Z</t>
-  </si>
-  <si>
-    <t>60330 ms</t>
+    <t>2017-06-21T19:23:11Z</t>
+  </si>
+  <si>
+    <t>2017-06-21T19:23:28Z</t>
+  </si>
+  <si>
+    <t>16844 ms</t>
   </si>
 </sst>
 </file>
@@ -291,7 +291,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.88671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.84765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.46484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -373,10 +373,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.34375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.3984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.6171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.609375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="27.46484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="26.6953125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.46484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="13.08203125" customWidth="true" bestFit="true"/>
   </cols>
